--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView windowHeight="7950" windowWidth="20055" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -28,6 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -55,21 +56,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-IN"/>
   <c:chart>
     <c:view3D>
@@ -153,14 +154,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -199,10 +200,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -358,7 +359,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -367,13 +368,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -383,7 +384,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -392,7 +393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -401,7 +402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -411,12 +412,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -447,7 +448,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -466,7 +467,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -479,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
@@ -496,15 +497,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>3</v>
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -517,7 +518,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -529,6 +530,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>